--- a/SchedulingData/dynamic14/pso/scheduling2_14.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,17 +466,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>219.58</v>
+        <v>220.4</v>
       </c>
       <c r="D2" t="n">
-        <v>283.8</v>
+        <v>314</v>
       </c>
       <c r="E2" t="n">
-        <v>13.28</v>
+        <v>10.74</v>
       </c>
     </row>
     <row r="3">
@@ -485,41 +485,41 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>276.22</v>
+        <v>246.54</v>
       </c>
       <c r="D3" t="n">
-        <v>317.2</v>
+        <v>308.14</v>
       </c>
       <c r="E3" t="n">
-        <v>8.98</v>
+        <v>12.356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>230.78</v>
+        <v>308.14</v>
       </c>
       <c r="D4" t="n">
-        <v>290.68</v>
+        <v>365.36</v>
       </c>
       <c r="E4" t="n">
-        <v>13.092</v>
+        <v>7.764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>241.42</v>
+        <v>314</v>
       </c>
       <c r="D5" t="n">
-        <v>297.36</v>
+        <v>355.24</v>
       </c>
       <c r="E5" t="n">
-        <v>13.864</v>
+        <v>7.256</v>
       </c>
     </row>
     <row r="6">
@@ -542,17 +542,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>290.68</v>
+        <v>225.84</v>
       </c>
       <c r="D6" t="n">
-        <v>334.18</v>
+        <v>258.64</v>
       </c>
       <c r="E6" t="n">
-        <v>10.372</v>
+        <v>12.816</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>317.2</v>
+        <v>365.36</v>
       </c>
       <c r="D7" t="n">
-        <v>363.08</v>
+        <v>405.86</v>
       </c>
       <c r="E7" t="n">
-        <v>6.032</v>
+        <v>5.344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>283.8</v>
+        <v>260.98</v>
       </c>
       <c r="D8" t="n">
-        <v>336.7</v>
+        <v>306.76</v>
       </c>
       <c r="E8" t="n">
-        <v>10.12</v>
+        <v>13.964</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>334.18</v>
+        <v>207.22</v>
       </c>
       <c r="D9" t="n">
-        <v>375.66</v>
+        <v>274.94</v>
       </c>
       <c r="E9" t="n">
-        <v>7.864</v>
+        <v>14.636</v>
       </c>
     </row>
     <row r="10">
@@ -618,188 +618,188 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>210.1</v>
+        <v>306.76</v>
       </c>
       <c r="D10" t="n">
-        <v>297.12</v>
+        <v>379.96</v>
       </c>
       <c r="E10" t="n">
-        <v>14.308</v>
+        <v>10.244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>363.08</v>
+        <v>274.94</v>
       </c>
       <c r="D11" t="n">
-        <v>443.08</v>
+        <v>313.28</v>
       </c>
       <c r="E11" t="n">
-        <v>1.652</v>
+        <v>11.932</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>443.08</v>
+        <v>355.24</v>
       </c>
       <c r="D12" t="n">
-        <v>516.58</v>
+        <v>406.14</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>4.296</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>375.66</v>
+        <v>223.68</v>
       </c>
       <c r="D13" t="n">
-        <v>413.78</v>
+        <v>256.04</v>
       </c>
       <c r="E13" t="n">
-        <v>4.692</v>
+        <v>12.636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>248.44</v>
+        <v>258.64</v>
       </c>
       <c r="D14" t="n">
-        <v>283.94</v>
+        <v>318.64</v>
       </c>
       <c r="E14" t="n">
-        <v>15.736</v>
+        <v>8.436</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>297.12</v>
+        <v>313.28</v>
       </c>
       <c r="D15" t="n">
-        <v>355.92</v>
+        <v>373.26</v>
       </c>
       <c r="E15" t="n">
-        <v>10.048</v>
+        <v>7.564</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>297.36</v>
+        <v>406.14</v>
       </c>
       <c r="D16" t="n">
-        <v>368.7</v>
+        <v>469.45</v>
       </c>
       <c r="E16" t="n">
-        <v>9.859999999999999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>283.94</v>
+        <v>469.45</v>
       </c>
       <c r="D17" t="n">
-        <v>365.72</v>
+        <v>544.37</v>
       </c>
       <c r="E17" t="n">
-        <v>11.628</v>
+        <v>25.688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>368.7</v>
+        <v>379.96</v>
       </c>
       <c r="D18" t="n">
-        <v>428.56</v>
+        <v>429.22</v>
       </c>
       <c r="E18" t="n">
-        <v>7.484</v>
+        <v>7.428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>365.72</v>
+        <v>429.22</v>
       </c>
       <c r="D19" t="n">
-        <v>418</v>
+        <v>494.62</v>
       </c>
       <c r="E19" t="n">
-        <v>8.02</v>
+        <v>3.508</v>
       </c>
     </row>
     <row r="20">
@@ -808,93 +808,93 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>428.56</v>
+        <v>373.26</v>
       </c>
       <c r="D20" t="n">
-        <v>495.76</v>
+        <v>449.4</v>
       </c>
       <c r="E20" t="n">
-        <v>3.404</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>413.78</v>
+        <v>449.4</v>
       </c>
       <c r="D21" t="n">
-        <v>451.04</v>
+        <v>517.14</v>
       </c>
       <c r="E21" t="n">
-        <v>2.096</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>418</v>
+        <v>517.14</v>
       </c>
       <c r="D22" t="n">
-        <v>470.6</v>
+        <v>616.73</v>
       </c>
       <c r="E22" t="n">
-        <v>5.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>516.58</v>
+        <v>544.37</v>
       </c>
       <c r="D23" t="n">
-        <v>593.78</v>
+        <v>580.53</v>
       </c>
       <c r="E23" t="n">
-        <v>26.92</v>
+        <v>22.712</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>470.6</v>
+        <v>616.73</v>
       </c>
       <c r="D24" t="n">
-        <v>530.7</v>
+        <v>675.79</v>
       </c>
       <c r="E24" t="n">
-        <v>2.98</v>
+        <v>27.264</v>
       </c>
     </row>
     <row r="25">
@@ -903,55 +903,55 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>593.78</v>
+        <v>405.86</v>
       </c>
       <c r="D25" t="n">
-        <v>642.24</v>
+        <v>439.3</v>
       </c>
       <c r="E25" t="n">
-        <v>24.184</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>336.7</v>
+        <v>318.64</v>
       </c>
       <c r="D26" t="n">
-        <v>412.36</v>
+        <v>369.52</v>
       </c>
       <c r="E26" t="n">
-        <v>6.664</v>
+        <v>5.468</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>355.92</v>
+        <v>256.04</v>
       </c>
       <c r="D27" t="n">
-        <v>405.2</v>
+        <v>344.74</v>
       </c>
       <c r="E27" t="n">
-        <v>7.24</v>
+        <v>7.836</v>
       </c>
     </row>
     <row r="28">
@@ -960,90 +960,90 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>530.7</v>
+        <v>344.74</v>
       </c>
       <c r="D28" t="n">
-        <v>626.04</v>
+        <v>411.84</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>4.756</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>626.04</v>
+        <v>439.3</v>
       </c>
       <c r="D29" t="n">
-        <v>697.74</v>
+        <v>478.1</v>
       </c>
       <c r="E29" t="n">
-        <v>25.98</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>412.36</v>
+        <v>478.1</v>
       </c>
       <c r="D30" t="n">
-        <v>468.06</v>
+        <v>588.6</v>
       </c>
       <c r="E30" t="n">
-        <v>3.704</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>405.2</v>
+        <v>580.53</v>
       </c>
       <c r="D31" t="n">
-        <v>478.2</v>
+        <v>635.47</v>
       </c>
       <c r="E31" t="n">
-        <v>3.52</v>
+        <v>18.848</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>478.2</v>
+        <v>411.84</v>
       </c>
       <c r="D32" t="n">
-        <v>538.16</v>
+        <v>508.73</v>
       </c>
       <c r="E32" t="n">
         <v>30</v>
@@ -1051,45 +1051,45 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>538.16</v>
+        <v>508.73</v>
       </c>
       <c r="D33" t="n">
-        <v>632.46</v>
+        <v>582.23</v>
       </c>
       <c r="E33" t="n">
-        <v>25.2</v>
+        <v>24.84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>468.06</v>
+        <v>369.52</v>
       </c>
       <c r="D34" t="n">
-        <v>506.4</v>
+        <v>418.52</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>1.208</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>506.4</v>
+        <v>418.52</v>
       </c>
       <c r="D35" t="n">
-        <v>581.2</v>
+        <v>502.7</v>
       </c>
       <c r="E35" t="n">
         <v>30</v>
@@ -1108,173 +1108,154 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>642.24</v>
+        <v>582.23</v>
       </c>
       <c r="D36" t="n">
-        <v>700.28</v>
+        <v>657.45</v>
       </c>
       <c r="E36" t="n">
-        <v>21.48</v>
+        <v>21.928</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>495.76</v>
+        <v>502.7</v>
       </c>
       <c r="D37" t="n">
-        <v>590.35</v>
+        <v>572.86</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>590.35</v>
+        <v>657.45</v>
       </c>
       <c r="D38" t="n">
-        <v>641.15</v>
+        <v>697.41</v>
       </c>
       <c r="E38" t="n">
-        <v>25.62</v>
+        <v>19.552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>697.74</v>
+        <v>572.86</v>
       </c>
       <c r="D39" t="n">
-        <v>743.9</v>
+        <v>628.84</v>
       </c>
       <c r="E39" t="n">
-        <v>23.004</v>
+        <v>25.116</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>641.15</v>
+        <v>588.6</v>
       </c>
       <c r="D40" t="n">
-        <v>708.89</v>
+        <v>658.08</v>
       </c>
       <c r="E40" t="n">
-        <v>22.916</v>
+        <v>27.192</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>451.04</v>
+        <v>494.62</v>
       </c>
       <c r="D41" t="n">
-        <v>523.85</v>
+        <v>570.38</v>
       </c>
       <c r="E41" t="n">
-        <v>30</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>523.85</v>
+        <v>570.38</v>
       </c>
       <c r="D42" t="n">
-        <v>592.05</v>
+        <v>665.8200000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>25.38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>581.2</v>
+        <v>665.8200000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>651.36</v>
+        <v>727.48</v>
       </c>
       <c r="E43" t="n">
-        <v>27.624</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>pond59</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>592.05</v>
-      </c>
-      <c r="D44" t="n">
-        <v>696.0700000000001</v>
-      </c>
-      <c r="E44" t="n">
-        <v>21.068</v>
+        <v>26.024</v>
       </c>
     </row>
   </sheetData>
